--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B8F63-C097-4437-BD38-DBD8E7AE59D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B499F29-120A-45D7-9139-5100F59BD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -481,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -649,7 +654,7 @@
         <v>40</v>
       </c>
       <c r="T2" s="2">
-        <v>5820501111751640</v>
+        <v>6030501111751640</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>39</v>
